--- a/tables/metrics_all_relationships_network_villages_prediction_stable_ties.xlsx
+++ b/tables/metrics_all_relationships_network_villages_prediction_stable_ties.xlsx
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.4430693069306931</v>
+        <v>0.4633507853403142</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -440,31 +440,31 @@
         <v>139</v>
       </c>
       <c r="E2">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G2">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H2">
-        <v>0.6881188118811881</v>
+        <v>0.7277486910994765</v>
       </c>
       <c r="I2">
-        <v>0.3118811881188119</v>
+        <v>0.2722513089005236</v>
       </c>
       <c r="J2">
-        <v>0.801980198019802</v>
+        <v>0.8010471204188482</v>
       </c>
       <c r="K2">
-        <v>0.776536312849162</v>
+        <v>0.7853107344632768</v>
       </c>
       <c r="L2">
-        <v>0.745049504950495</v>
+        <v>0.7643979057591623</v>
       </c>
       <c r="M2">
-        <v>0.7296587926509186</v>
+        <v>0.7554347826086957</v>
       </c>
     </row>
     <row r="3">
@@ -474,40 +474,40 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.4649122807017544</v>
+        <v>0.4414893617021277</v>
       </c>
       <c r="C3">
         <v>0.5</v>
       </c>
       <c r="D3">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E3">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F3">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H3">
-        <v>0.7456140350877193</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="I3">
-        <v>0.2543859649122807</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="J3">
-        <v>0.8157894736842105</v>
+        <v>0.8404255319148937</v>
       </c>
       <c r="K3">
-        <v>0.8018867924528302</v>
+        <v>0.8192771084337349</v>
       </c>
       <c r="L3">
-        <v>0.7807017543859649</v>
+        <v>0.7819148936170213</v>
       </c>
       <c r="M3">
-        <v>0.7727272727272727</v>
+        <v>0.768361581920904</v>
       </c>
     </row>
     <row r="4">
@@ -517,40 +517,40 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.5299145299145299</v>
+        <v>0.5055555555555555</v>
       </c>
       <c r="C4">
         <v>0.5</v>
       </c>
       <c r="D4">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="E4">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H4">
-        <v>0.8034188034188035</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I4">
-        <v>0.1965811965811966</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="J4">
-        <v>0.7435897435897436</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="K4">
-        <v>0.7580645161290323</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L4">
-        <v>0.7735042735042735</v>
+        <v>0.7722222222222223</v>
       </c>
       <c r="M4">
-        <v>0.7800829875518672</v>
+        <v>0.7734806629834254</v>
       </c>
     </row>
     <row r="5">
@@ -560,40 +560,40 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.4238227146814404</v>
+        <v>0.4186440677966102</v>
       </c>
       <c r="C5">
         <v>0.5</v>
       </c>
       <c r="D5">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E5">
-        <v>304</v>
+        <v>247</v>
       </c>
       <c r="F5">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G5">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="H5">
-        <v>0.6897506925207756</v>
+        <v>0.6745762711864407</v>
       </c>
       <c r="I5">
-        <v>0.3102493074792244</v>
+        <v>0.3254237288135593</v>
       </c>
       <c r="J5">
-        <v>0.8421052631578947</v>
+        <v>0.8372881355932204</v>
       </c>
       <c r="K5">
-        <v>0.8137254901960784</v>
+        <v>0.805668016194332</v>
       </c>
       <c r="L5">
-        <v>0.7659279778393352</v>
+        <v>0.7559322033898305</v>
       </c>
       <c r="M5">
-        <v>0.7466266866566716</v>
+        <v>0.7343173431734318</v>
       </c>
     </row>
     <row r="6">
@@ -603,40 +603,40 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.4107142857142857</v>
+        <v>0.4204545454545455</v>
       </c>
       <c r="C6">
         <v>0.5</v>
       </c>
       <c r="D6">
+        <v>35</v>
+      </c>
+      <c r="E6">
         <v>42</v>
       </c>
-      <c r="E6">
-        <v>52</v>
-      </c>
       <c r="F6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H6">
-        <v>0.75</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="I6">
-        <v>0.25</v>
+        <v>0.2045454545454546</v>
       </c>
       <c r="J6">
-        <v>0.9285714285714286</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="K6">
-        <v>0.9130434782608695</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="L6">
-        <v>0.8392857142857143</v>
+        <v>0.875</v>
       </c>
       <c r="M6">
-        <v>0.8235294117647058</v>
+        <v>0.8641975308641975</v>
       </c>
     </row>
     <row r="7">
@@ -646,40 +646,40 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.2333333333333333</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="C7">
         <v>0.5</v>
       </c>
       <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>7</v>
       </c>
-      <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
       <c r="H7">
-        <v>0.4666666666666667</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="I7">
-        <v>0.5333333333333333</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>0.7333333333333333</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="M7">
-        <v>0.6363636363636364</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
@@ -689,40 +689,40 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.4489795918367347</v>
+        <v>0.4598214285714285</v>
       </c>
       <c r="C8">
         <v>0.5</v>
       </c>
       <c r="D8">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="E8">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="F8">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G8">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H8">
-        <v>0.7074829931972789</v>
+        <v>0.7053571428571429</v>
       </c>
       <c r="I8">
-        <v>0.2925170068027211</v>
+        <v>0.2946428571428572</v>
       </c>
       <c r="J8">
-        <v>0.8095238095238095</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="K8">
-        <v>0.7878787878787878</v>
+        <v>0.7669902912621359</v>
       </c>
       <c r="L8">
-        <v>0.7585034013605442</v>
+        <v>0.7455357142857143</v>
       </c>
       <c r="M8">
-        <v>0.7455197132616488</v>
+        <v>0.7348837209302326</v>
       </c>
     </row>
     <row r="9">
@@ -732,40 +732,40 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.4144736842105263</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="C9">
         <v>0.5</v>
       </c>
       <c r="D9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H9">
-        <v>0.7105263157894737</v>
+        <v>0.7361111111111112</v>
       </c>
       <c r="I9">
-        <v>0.2894736842105263</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="J9">
-        <v>0.881578947368421</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="K9">
-        <v>0.8571428571428571</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="L9">
-        <v>0.7960526315789473</v>
+        <v>0.8402777777777778</v>
       </c>
       <c r="M9">
-        <v>0.7769784172661871</v>
+        <v>0.8217054263565892</v>
       </c>
     </row>
     <row r="10">
@@ -775,40 +775,40 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.4601328903654485</v>
+        <v>0.4569672131147541</v>
       </c>
       <c r="C10">
         <v>0.5</v>
       </c>
       <c r="D10">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="E10">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="F10">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G10">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="H10">
-        <v>0.7176079734219269</v>
+        <v>0.7377049180327869</v>
       </c>
       <c r="I10">
-        <v>0.2823920265780731</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="J10">
-        <v>0.7973421926910299</v>
+        <v>0.8237704918032787</v>
       </c>
       <c r="K10">
-        <v>0.779783393501805</v>
+        <v>0.8071748878923767</v>
       </c>
       <c r="L10">
-        <v>0.7574750830564784</v>
+        <v>0.7807377049180327</v>
       </c>
       <c r="M10">
-        <v>0.7474048442906575</v>
+        <v>0.7708779443254818</v>
       </c>
     </row>
     <row r="11">
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.4454545454545454</v>
+        <v>0.4326923076923077</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -827,31 +827,31 @@
         <v>33</v>
       </c>
       <c r="E11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G11">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H11">
-        <v>0.6</v>
+        <v>0.6346153846153846</v>
       </c>
       <c r="I11">
-        <v>0.4</v>
+        <v>0.3653846153846154</v>
       </c>
       <c r="J11">
-        <v>0.7090909090909091</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="K11">
-        <v>0.673469387755102</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L11">
-        <v>0.6545454545454545</v>
+        <v>0.7019230769230769</v>
       </c>
       <c r="M11">
-        <v>0.6346153846153846</v>
+        <v>0.6804123711340206</v>
       </c>
     </row>
     <row r="12">
@@ -861,40 +861,40 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.4879518072289157</v>
+        <v>0.5</v>
       </c>
       <c r="C12">
         <v>0.5</v>
       </c>
       <c r="D12">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="F12">
         <v>15</v>
       </c>
       <c r="G12">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H12">
-        <v>0.7951807228915663</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="I12">
-        <v>0.2048192771084337</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="J12">
-        <v>0.8192771084337349</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="K12">
-        <v>0.8148148148148148</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L12">
-        <v>0.8072289156626506</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="M12">
-        <v>0.8048780487804879</v>
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="13">
@@ -904,40 +904,40 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.4705882352941176</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C13">
         <v>0.5</v>
       </c>
       <c r="D13">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F13">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G13">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H13">
-        <v>0.6911764705882353</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="I13">
-        <v>0.3088235294117647</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="J13">
-        <v>0.75</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="K13">
-        <v>0.734375</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L13">
-        <v>0.7205882352941176</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="M13">
-        <v>0.7121212121212122</v>
+        <v>0.6597938144329897</v>
       </c>
     </row>
     <row r="14">
@@ -947,40 +947,40 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.4791666666666667</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C14">
         <v>0.5</v>
       </c>
       <c r="D14">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E14">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14">
-        <v>0.8125</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I14">
-        <v>0.1875</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="J14">
-        <v>0.8541666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="K14">
-        <v>0.8478260869565217</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L14">
-        <v>0.8333333333333334</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="M14">
-        <v>0.8297872340425532</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15">
@@ -990,40 +990,40 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.4086021505376344</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="C15">
         <v>0.5</v>
       </c>
       <c r="D15">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E15">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="F15">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H15">
-        <v>0.6451612903225806</v>
+        <v>0.5901639344262295</v>
       </c>
       <c r="I15">
-        <v>0.3548387096774194</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="J15">
-        <v>0.8279569892473119</v>
+        <v>0.8360655737704918</v>
       </c>
       <c r="K15">
-        <v>0.7894736842105263</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L15">
-        <v>0.7365591397849462</v>
+        <v>0.7131147540983607</v>
       </c>
       <c r="M15">
-        <v>0.7100591715976331</v>
+        <v>0.6728971962616822</v>
       </c>
     </row>
     <row r="16">
@@ -1033,40 +1033,40 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.4360902255639098</v>
+        <v>0.4352941176470588</v>
       </c>
       <c r="C16">
         <v>0.5</v>
       </c>
       <c r="D16">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="E16">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="F16">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G16">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H16">
-        <v>0.6766917293233082</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="I16">
-        <v>0.3233082706766917</v>
+        <v>0.3647058823529412</v>
       </c>
       <c r="J16">
-        <v>0.8045112781954887</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="K16">
-        <v>0.7758620689655172</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="L16">
-        <v>0.7406015037593985</v>
+        <v>0.7</v>
       </c>
       <c r="M16">
-        <v>0.7228915662650602</v>
+        <v>0.6792452830188679</v>
       </c>
     </row>
     <row r="17">
@@ -1076,40 +1076,40 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.4144144144144144</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C17">
         <v>0.5</v>
       </c>
       <c r="D17">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="E17">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="F17">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G17">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H17">
-        <v>0.6936936936936937</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="I17">
-        <v>0.3063063063063063</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="J17">
-        <v>0.8648648648648649</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="K17">
-        <v>0.8369565217391305</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L17">
-        <v>0.7792792792792793</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="M17">
-        <v>0.7586206896551724</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18">
@@ -1119,22 +1119,22 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.3968253968253968</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C18">
         <v>0.5</v>
       </c>
       <c r="D18">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F18">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H18">
         <v>0.5714285714285714</v>
@@ -1143,16 +1143,16 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="J18">
-        <v>0.7777777777777778</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="K18">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>0.6746031746031746</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="M18">
-        <v>0.6371681415929203</v>
+        <v>0.6486486486486487</v>
       </c>
     </row>
     <row r="19">
@@ -1162,40 +1162,40 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.5625</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="C19">
         <v>0.5</v>
       </c>
       <c r="D19">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E19">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F19">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H19">
-        <v>0.8214285714285714</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="I19">
-        <v>0.1785714285714286</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="J19">
-        <v>0.6964285714285714</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="K19">
-        <v>0.7301587301587301</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L19">
-        <v>0.7589285714285714</v>
+        <v>0.686046511627907</v>
       </c>
       <c r="M19">
-        <v>0.773109243697479</v>
+        <v>0.6966292134831461</v>
       </c>
     </row>
   </sheetData>
